--- a/data/trans_orig/P70A01_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4A95AB-54F2-4305-84F3-6CF926119852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{207D9589-3163-4F98-89F5-02A62C18AD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6FC2812A-C668-4F71-BE72-E928973C9347}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D4E22B1-8E16-431D-AFDA-BA86D12C808E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>76,49%</t>
   </si>
   <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>53,94%</t>
   </si>
   <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
   </si>
   <si>
     <t>66,52%</t>
   </si>
   <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>23,51%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
   </si>
   <si>
     <t>46,06%</t>
   </si>
   <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,235 +137,235 @@
     <t>78,39%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
   </si>
   <si>
     <t>59,9%</t>
   </si>
   <si>
-    <t>54,7%</t>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
   </si>
   <si>
     <t>65,59%</t>
   </si>
   <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
     <t>65 y más</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>30,87%</t>
+    <t>39,65%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -380,13 +380,13 @@
     <t>74,17%</t>
   </si>
   <si>
-    <t>27,23%</t>
+    <t>29,73%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>69,13%</t>
+    <t>60,35%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -395,61 +395,61 @@
     <t>25,83%</t>
   </si>
   <si>
-    <t>72,77%</t>
+    <t>70,27%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99D1163-7AC6-4D6C-B3EF-4EC5240F35C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7916BA-FCC0-4FCB-A5B4-89BC62D6B35A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1346,7 +1346,7 @@
         <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>94819</v>
+        <v>94818</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1397,7 +1397,7 @@
         <v>506</v>
       </c>
       <c r="D12" s="7">
-        <v>523994</v>
+        <v>523993</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P70A01_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{207D9589-3163-4F98-89F5-02A62C18AD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7909D39-E4EA-4CD8-ADAF-0508B68CB3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D4E22B1-8E16-431D-AFDA-BA86D12C808E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63C7CE58-C79C-4A8D-95DC-BBFFF6279CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>76,49%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>53,94%</t>
   </si>
   <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
   </si>
   <si>
     <t>66,52%</t>
   </si>
   <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>23,51%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>46,06%</t>
   </si>
   <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>78,39%</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
   </si>
   <si>
     <t>59,9%</t>
   </si>
   <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>71,58%</t>
   </si>
   <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>40,1%</t>
   </si>
   <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>81,9%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>62,24%</t>
   </si>
   <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>37,76%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
   </si>
   <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>77,94%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>57,09%</t>
   </si>
   <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>42,91%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>75,58%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>64,79%</t>
   </si>
   <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>72,65%</t>
   </si>
   <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>24,42%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
   </si>
   <si>
     <t>35,21%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
   </si>
   <si>
     <t>27,35%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -380,7 +380,7 @@
     <t>74,17%</t>
   </si>
   <si>
-    <t>29,73%</t>
+    <t>29,1%</t>
   </si>
   <si>
     <t>16,49%</t>
@@ -395,61 +395,61 @@
     <t>25,83%</t>
   </si>
   <si>
-    <t>70,27%</t>
+    <t>70,9%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7916BA-FCC0-4FCB-A5B4-89BC62D6B35A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F60357-04C0-4927-8516-71FDA5C7B9FF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1346,7 +1346,7 @@
         <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>94818</v>
+        <v>94819</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1397,7 +1397,7 @@
         <v>506</v>
       </c>
       <c r="D12" s="7">
-        <v>523993</v>
+        <v>523994</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P70A01_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7909D39-E4EA-4CD8-ADAF-0508B68CB3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C2A1A3-20C2-46D4-85F0-A64C5CFEE12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{63C7CE58-C79C-4A8D-95DC-BBFFF6279CC0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB8307CF-2BF8-4DC0-9605-954FEE7042B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>76,49%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>53,94%</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
   </si>
   <si>
     <t>66,52%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>23,51%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>46,06%</t>
   </si>
   <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>78,39%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>59,9%</t>
   </si>
   <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>71,58%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
   </si>
   <si>
     <t>40,1%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>81,9%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>62,24%</t>
   </si>
   <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>37,76%</t>
   </si>
   <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
   </si>
   <si>
     <t>25,0%</t>
   </si>
   <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>77,94%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
   </si>
   <si>
     <t>57,09%</t>
   </si>
   <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>42,91%</t>
   </si>
   <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>75,58%</t>
   </si>
   <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>64,79%</t>
   </si>
   <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>72,65%</t>
   </si>
   <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
   </si>
   <si>
     <t>24,42%</t>
   </si>
   <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>35,21%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>27,35%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,7 +365,7 @@
     <t>83,51%</t>
   </si>
   <si>
-    <t>39,65%</t>
+    <t>30,87%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -380,13 +380,13 @@
     <t>74,17%</t>
   </si>
   <si>
-    <t>29,1%</t>
+    <t>27,23%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>60,35%</t>
+    <t>69,13%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -395,61 +395,61 @@
     <t>25,83%</t>
   </si>
   <si>
-    <t>70,9%</t>
+    <t>72,77%</t>
   </si>
   <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>59,55%</t>
   </si>
   <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F60357-04C0-4927-8516-71FDA5C7B9FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32DB349-E875-4824-A8F0-F2807E9A5C18}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70A01_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A01_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C2A1A3-20C2-46D4-85F0-A64C5CFEE12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B26FDBEF-F6D2-42CE-8F73-FF0BDE22D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DB8307CF-2BF8-4DC0-9605-954FEE7042B3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A6D542CE-05A4-4C71-B625-75EFAADFCED8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="140">
   <si>
     <t>Población según si le han informado sobre los riesgos laborales de su trabajo en su empresa en 2007 (Tasa respuesta: 39,63%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>78,39%</t>
@@ -188,7 +188,7 @@
     <t>31,94%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>81,9%</t>
@@ -245,7 +245,7 @@
     <t>28,31%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>77,94%</t>
@@ -302,7 +302,7 @@
     <t>31,9%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>75,58%</t>
@@ -359,43 +359,46 @@
     <t>34,05%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
     <t>48,63%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>78,94%</t>
@@ -864,8 +867,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32DB349-E875-4824-A8F0-F2807E9A5C18}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6716FCF-2D97-4B96-9754-988F33F52ECD}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1346,7 +1349,7 @@
         <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>94819</v>
+        <v>94818</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1397,7 +1400,7 @@
         <v>506</v>
       </c>
       <c r="D12" s="7">
-        <v>523994</v>
+        <v>523993</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1757,10 +1760,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>4207</v>
+        <v>2568</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1769,7 +1772,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1778,28 +1781,28 @@
         <v>896</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3464</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5104</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,19 +1811,19 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>831</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1829,28 +1832,28 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>1778</v>
+        <v>947</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1889,10 +1892,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>6882</v>
+        <v>4411</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1906,55 +1909,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1330</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1388531</v>
+        <v>1640</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
-        <v>542</v>
-      </c>
-      <c r="I22" s="7">
-        <v>557390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>1872</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1945922</v>
+        <v>1640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,49 +1964,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>354</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>370500</v>
+        <v>831</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
-        <v>354</v>
-      </c>
-      <c r="I23" s="7">
-        <v>378558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
-        <v>708</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>749057</v>
+        <v>831</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,63 +2013,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1330</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1388531</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="7">
+        <v>542</v>
+      </c>
+      <c r="I25" s="7">
+        <v>557390</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1872</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1945922</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>354</v>
+      </c>
+      <c r="D26" s="7">
+        <v>370500</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="7">
+        <v>354</v>
+      </c>
+      <c r="I26" s="7">
+        <v>378558</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="7">
+        <v>708</v>
+      </c>
+      <c r="N26" s="7">
+        <v>749057</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1684</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1759031</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>896</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>935948</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2580</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2694979</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
